--- a/anakyzed.xlsx
+++ b/anakyzed.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -509,13 +510,13 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.69140625" defaultRowHeight="14.6" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="2" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="1" style="2" width="8.69140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1739,103 +1740,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.69140625" defaultRowHeight="14.6" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="2" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="1" style="2" width="8.69140625"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="n">
-        <v>432.9604174527465</v>
-      </c>
-      <c r="B1" t="n">
-        <v>157.6565028933628</v>
-      </c>
-      <c r="C1" t="n">
-        <v>100.5364509608477</v>
-      </c>
-      <c r="D1" t="n">
-        <v>18227.31949667334</v>
-      </c>
-      <c r="E1" t="n">
-        <v>32333.18085156193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="n">
-        <v>385.142419893523</v>
-      </c>
-      <c r="B2" t="n">
-        <v>129.2841508036708</v>
-      </c>
-      <c r="C2" t="n">
-        <v>108.1996807442682</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15114.84829987815</v>
-      </c>
-      <c r="E2" t="n">
-        <v>27581.36118929135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="n">
-        <v>394.386171867544</v>
-      </c>
-      <c r="B3" t="n">
-        <v>112.375937966617</v>
-      </c>
-      <c r="C3" t="n">
-        <v>99.18737151716449</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18998.32671603235</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34296.39049633301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="n">
-        <v>360.5405392709662</v>
-      </c>
-      <c r="B4" t="n">
-        <v>143.7304524680481</v>
-      </c>
-      <c r="C4" t="n">
-        <v>96.09587923489934</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14776.90709735898</v>
-      </c>
-      <c r="E4" t="n">
-        <v>24512.81392866398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="n">
-        <v>393.2573871211949</v>
-      </c>
-      <c r="B5" t="n">
-        <v>136.1244179741812</v>
-      </c>
-      <c r="C5" t="n">
-        <v>101.9325706731346</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16779.35040248571</v>
-      </c>
-      <c r="E5" t="n">
-        <v>29680.93661646252</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.5118055555555555" header="0.5118055555555555" left="0.7" right="0.7" top="0.75"/>
   <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
@@ -1847,18 +1762,88 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.69140625" defaultRowHeight="14.6" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="2" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="1" style="2" width="8.69140625"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="n">
+        <v>432.9604174527465</v>
+      </c>
+      <c r="B1" t="n">
+        <v>157.6565028933628</v>
+      </c>
+      <c r="C1" t="n">
+        <v>100.5364509608477</v>
+      </c>
+      <c r="D1" t="n">
+        <v>19069.94516042675</v>
+      </c>
+      <c r="E1" t="n">
+        <v>31490.55518780852</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="n">
+        <v>385.142419893523</v>
+      </c>
+      <c r="B2" t="n">
+        <v>129.2841508036708</v>
+      </c>
+      <c r="C2" t="n">
+        <v>108.1996807442682</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15891.04308403571</v>
+      </c>
+      <c r="E2" t="n">
+        <v>26805.16640513378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="n">
+        <v>409.0514186731344</v>
+      </c>
+      <c r="B3" t="n">
+        <v>143.7454045971708</v>
+      </c>
+      <c r="C3" t="n">
+        <v>104.9459852064982</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17480.49412223122</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29147.8607964711</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.5118055555555555" header="0.5118055555555555" left="0.7" right="0.7" top="0.75"/>
   <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.45"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>